--- a/master.xlsx
+++ b/master.xlsx
@@ -48,6 +48,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -100,11 +103,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -847,7 +851,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -871,36 +875,1642 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="2">
+        <v>43888</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>43889</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>43890</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>43891</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>43892</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>43894</v>
+      </c>
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>43897</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>43900</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>43901</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>43902</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>43903</v>
+      </c>
+      <c r="B12">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>43904</v>
+      </c>
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>43906</v>
+      </c>
+      <c r="B15">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B16">
+        <v>187</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
+        <v>43908</v>
+      </c>
+      <c r="B17">
+        <v>187</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
+        <v>43909</v>
+      </c>
+      <c r="B18">
+        <v>302</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
+        <v>43910</v>
+      </c>
+      <c r="B19">
+        <v>478</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
+        <v>43911</v>
+      </c>
+      <c r="B20">
+        <v>495</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
+        <v>43912</v>
+      </c>
+      <c r="B21">
+        <v>646</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
+        <v>43913</v>
+      </c>
+      <c r="B22">
+        <v>784</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
+        <v>43914</v>
+      </c>
+      <c r="B23">
+        <v>887</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
+        <v>43915</v>
+      </c>
+      <c r="B24">
+        <v>991</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B25">
+        <v>1057</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B26">
+        <v>1197</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B27">
+        <v>1197</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B28">
+        <v>1408</v>
+      </c>
+      <c r="D28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B29">
+        <v>1526</v>
+      </c>
+      <c r="D29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B30">
+        <v>1625</v>
+      </c>
+      <c r="D30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B31">
+        <v>2039</v>
+      </c>
+      <c r="D31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B32">
+        <v>2291</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B33">
+        <v>2291</v>
+      </c>
+      <c r="D33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B34">
+        <v>2291</v>
+      </c>
+      <c r="D34">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B35">
+        <v>2450</v>
+      </c>
+      <c r="D35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B36">
+        <v>3277</v>
+      </c>
+      <c r="D36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B37">
+        <v>3864</v>
+      </c>
+      <c r="D37">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B38">
+        <v>4072</v>
+      </c>
+      <c r="D38">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B39">
+        <v>4322</v>
+      </c>
+      <c r="D39">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B40">
+        <v>4601</v>
+      </c>
+      <c r="D40">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B41">
+        <v>4788</v>
+      </c>
+      <c r="D41">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B42">
+        <v>5038</v>
+      </c>
+      <c r="D42">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B43">
+        <v>5374</v>
+      </c>
+      <c r="D43">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B44">
+        <v>5716</v>
+      </c>
+      <c r="D44">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B45">
+        <v>5988</v>
+      </c>
+      <c r="D45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B46">
+        <v>6505</v>
+      </c>
+      <c r="D46">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B47">
+        <v>7025</v>
+      </c>
+      <c r="D47">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B48">
+        <v>7481</v>
+      </c>
+      <c r="D48">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B49">
+        <v>7993</v>
+      </c>
+      <c r="D49">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B50">
+        <v>8418</v>
+      </c>
+      <c r="D50">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B51">
+        <v>9216</v>
+      </c>
+      <c r="D51">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B52">
+        <v>9749</v>
+      </c>
+      <c r="D52">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B53">
+        <v>9749</v>
+      </c>
+      <c r="D53">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B54">
+        <v>11155</v>
+      </c>
+      <c r="D54">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B55">
+        <v>11940</v>
+      </c>
+      <c r="D55">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B56">
+        <v>12723</v>
+      </c>
+      <c r="D56">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B57">
+        <v>13328</v>
+      </c>
+      <c r="D57">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B58">
+        <v>14079</v>
+      </c>
+      <c r="D58">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B59">
+        <v>14885</v>
+      </c>
+      <c r="D59">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B60">
+        <v>15759</v>
+      </c>
+      <c r="D60">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B61">
+        <v>16817</v>
+      </c>
+      <c r="D61">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B62">
+        <v>18114</v>
+      </c>
+      <c r="D62">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B63">
+        <v>19103</v>
+      </c>
+      <c r="D63">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B64">
+        <v>20186</v>
+      </c>
+      <c r="D64">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B65">
+        <v>21501</v>
+      </c>
+      <c r="D65">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B66">
+        <v>22550</v>
+      </c>
+      <c r="D66">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B67">
+        <v>24073</v>
+      </c>
+      <c r="D67">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B68">
+        <v>25837</v>
+      </c>
+      <c r="D68">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B69">
+        <v>27474</v>
+      </c>
+      <c r="D69">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B70">
+        <v>29465</v>
+      </c>
+      <c r="D70">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B71">
+        <v>30941</v>
+      </c>
+      <c r="D71">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B72">
+        <v>32081</v>
+      </c>
+      <c r="D72">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B73">
+        <v>34336</v>
+      </c>
+      <c r="D73">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B74">
+        <v>35788</v>
+      </c>
+      <c r="D74">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B75">
+        <v>37218</v>
+      </c>
+      <c r="D75">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B76">
+        <v>38799</v>
+      </c>
+      <c r="D76">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B77">
+        <v>40151</v>
+      </c>
+      <c r="D77">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B78">
+        <v>42125</v>
+      </c>
+      <c r="D78">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B79">
+        <v>43966</v>
+      </c>
+      <c r="D79">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="2">
+        <v>43971</v>
+      </c>
+      <c r="B80">
+        <v>45898</v>
+      </c>
+      <c r="D80">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="2">
+        <v>43972</v>
+      </c>
+      <c r="B81">
+        <v>48091</v>
+      </c>
+      <c r="D81">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="2">
+        <v>43973</v>
+      </c>
+      <c r="B82">
+        <v>50694</v>
+      </c>
+      <c r="D82">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="2">
+        <v>43974</v>
+      </c>
+      <c r="B83">
+        <v>52437</v>
+      </c>
+      <c r="D83">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="2">
+        <v>43975</v>
+      </c>
+      <c r="B84">
+        <v>54601</v>
+      </c>
+      <c r="D84">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="2">
+        <v>43976</v>
+      </c>
+      <c r="B85">
+        <v>56349</v>
+      </c>
+      <c r="D85">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="2">
+        <v>43977</v>
+      </c>
+      <c r="B86">
+        <v>57705</v>
+      </c>
+      <c r="D86">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="2">
+        <v>43978</v>
+      </c>
+      <c r="B87">
+        <v>59151</v>
+      </c>
+      <c r="D87">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="2">
+        <v>43979</v>
+      </c>
+      <c r="B88">
+        <v>61227</v>
+      </c>
+      <c r="D88">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="2">
+        <v>43980</v>
+      </c>
+      <c r="B89">
+        <v>64028</v>
+      </c>
+      <c r="D89">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="2">
+        <v>43981</v>
+      </c>
+      <c r="B90">
+        <v>66457</v>
+      </c>
+      <c r="D90">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="2">
+        <v>43982</v>
+      </c>
+      <c r="B91">
+        <v>69496</v>
+      </c>
+      <c r="D91">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="2">
+        <v>43983</v>
+      </c>
+      <c r="B92">
+        <v>72460</v>
+      </c>
+      <c r="D92">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B93">
+        <v>76398</v>
+      </c>
+      <c r="D93">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="2">
+        <v>43985</v>
+      </c>
+      <c r="B94">
+        <v>80463</v>
+      </c>
+      <c r="D94">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="2">
+        <v>43986</v>
+      </c>
+      <c r="B95">
+        <v>85264</v>
+      </c>
+      <c r="D95">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="2">
+        <v>43987</v>
+      </c>
+      <c r="B96">
+        <v>89249</v>
+      </c>
+      <c r="D96">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="2">
+        <v>43988</v>
+      </c>
+      <c r="B97">
+        <v>93983</v>
+      </c>
+      <c r="D97">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="2">
+        <v>43989</v>
+      </c>
+      <c r="B98">
+        <v>98943</v>
+      </c>
+      <c r="D98">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="2">
+        <v>43990</v>
+      </c>
+      <c r="B99">
+        <v>103671</v>
+      </c>
+      <c r="D99">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B100">
+        <v>108317</v>
+      </c>
+      <c r="D100">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="2">
+        <v>43992</v>
+      </c>
+      <c r="B101">
+        <v>113702</v>
+      </c>
+      <c r="D101">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="2">
+        <v>43993</v>
+      </c>
+      <c r="B102">
+        <v>119536</v>
+      </c>
+      <c r="D102">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="2">
+        <v>43994</v>
+      </c>
+      <c r="B103">
+        <v>125933</v>
+      </c>
+      <c r="D103">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="2">
+        <v>43995</v>
+      </c>
+      <c r="B104">
+        <v>132405</v>
+      </c>
+      <c r="D104">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="2">
+        <v>43996</v>
+      </c>
+      <c r="B105">
+        <v>139230</v>
+      </c>
+      <c r="D105">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="2">
+        <v>43997</v>
+      </c>
+      <c r="B106">
+        <v>144478</v>
+      </c>
+      <c r="D106">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B107">
+        <v>148921</v>
+      </c>
+      <c r="D107">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="2">
+        <v>43999</v>
+      </c>
+      <c r="B108">
+        <v>154760</v>
+      </c>
+      <c r="D108">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="2">
+        <v>44000</v>
+      </c>
+      <c r="B109">
+        <v>160118</v>
+      </c>
+      <c r="D109">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="2">
+        <v>44001</v>
+      </c>
+      <c r="B110">
+        <v>165062</v>
+      </c>
+      <c r="D110">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="2">
+        <v>44002</v>
+      </c>
+      <c r="B111">
+        <v>171666</v>
+      </c>
+      <c r="D111">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B112">
+        <v>176617</v>
+      </c>
+      <c r="D112">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="2">
+        <v>44004</v>
+      </c>
+      <c r="B113">
+        <v>181088</v>
+      </c>
+      <c r="D113">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="2">
+        <v>44005</v>
+      </c>
+      <c r="B114">
+        <v>185034</v>
+      </c>
+      <c r="D114">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="2">
+        <v>44006</v>
+      </c>
+      <c r="B115">
+        <v>188926</v>
+      </c>
+      <c r="D115">
+        <v>3755</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="2">
+        <v>44007</v>
+      </c>
+      <c r="B116">
+        <v>192970</v>
+      </c>
+      <c r="D116">
+        <v>3903</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="2">
+        <v>44008</v>
+      </c>
+      <c r="B117">
+        <v>195745</v>
+      </c>
+      <c r="D117">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="2">
+        <v>44009</v>
+      </c>
+      <c r="B118">
+        <v>198883</v>
+      </c>
+      <c r="D118">
+        <v>4035</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="2">
+        <v>44010</v>
+      </c>
+      <c r="B119">
+        <v>202955</v>
+      </c>
+      <c r="D119">
+        <v>4118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="2">
+        <v>44011</v>
+      </c>
+      <c r="B120">
+        <v>206512</v>
+      </c>
+      <c r="D120">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B121">
+        <v>209337</v>
+      </c>
+      <c r="D121">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="2">
+        <v>44013</v>
+      </c>
+      <c r="B122">
+        <v>213470</v>
+      </c>
+      <c r="D122">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="2">
+        <v>44014</v>
+      </c>
+      <c r="B123">
+        <v>217809</v>
+      </c>
+      <c r="D123">
+        <v>4473</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="2">
+        <v>44015</v>
+      </c>
+      <c r="B124">
+        <v>221896</v>
+      </c>
+      <c r="D124">
+        <v>4551</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="2">
+        <v>44016</v>
+      </c>
+      <c r="B125">
+        <v>225283</v>
+      </c>
+      <c r="D125">
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="2">
+        <v>44017</v>
+      </c>
+      <c r="B126">
+        <v>228474</v>
+      </c>
+      <c r="D126">
+        <v>4712</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="2">
+        <v>44018</v>
+      </c>
+      <c r="B127">
+        <v>231818</v>
+      </c>
+      <c r="D127">
+        <v>4762</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B128">
+        <v>234509</v>
+      </c>
+      <c r="D128">
+        <v>4839</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="2">
+        <v>44020</v>
+      </c>
+      <c r="B129">
+        <v>237489</v>
+      </c>
+      <c r="D129">
+        <v>4922</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="2">
+        <v>44021</v>
+      </c>
+      <c r="B130">
+        <v>240848</v>
+      </c>
+      <c r="D130">
+        <v>4983</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="2">
+        <v>44022</v>
+      </c>
+      <c r="B131">
+        <v>243599</v>
+      </c>
+      <c r="D131">
+        <v>5058</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="2">
+        <v>44023</v>
+      </c>
+      <c r="B132">
+        <v>246351</v>
+      </c>
+      <c r="D132">
+        <v>5123</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="2">
+        <v>44024</v>
+      </c>
+      <c r="B133">
+        <v>248872</v>
+      </c>
+      <c r="D133">
+        <v>5197</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="2">
+        <v>44025</v>
+      </c>
+      <c r="B134">
+        <v>251625</v>
+      </c>
+      <c r="D134">
+        <v>5266</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B135">
+        <v>253604</v>
+      </c>
+      <c r="D135">
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="2">
+        <v>44027</v>
+      </c>
+      <c r="B136">
+        <v>255769</v>
+      </c>
+      <c r="D136">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="2">
+        <v>44028</v>
+      </c>
+      <c r="B137">
+        <v>257914</v>
+      </c>
+      <c r="D137">
+        <v>5426</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="2">
+        <v>44029</v>
+      </c>
+      <c r="B138">
+        <v>259999</v>
+      </c>
+      <c r="D138">
+        <v>5475</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="2">
+        <v>44030</v>
+      </c>
+      <c r="B139">
+        <v>261917</v>
+      </c>
+      <c r="D139">
+        <v>5522</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="2">
+        <v>44031</v>
+      </c>
+      <c r="B140">
+        <v>263496</v>
+      </c>
+      <c r="D140">
+        <v>5568</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="2">
+        <v>44032</v>
+      </c>
+      <c r="B141">
+        <v>265083</v>
+      </c>
+      <c r="D141">
+        <v>5599</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B142">
+        <v>266096</v>
+      </c>
+      <c r="D142">
+        <v>5639</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="2">
+        <v>44034</v>
+      </c>
+      <c r="B143">
+        <v>267428</v>
+      </c>
+      <c r="D143">
+        <v>5677</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="2">
+        <v>44035</v>
+      </c>
+      <c r="B144">
+        <v>269191</v>
+      </c>
+      <c r="D144">
+        <v>5709</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2">
+        <v>44036</v>
+      </c>
+      <c r="B145">
+        <v>270400</v>
+      </c>
+      <c r="D145">
+        <v>5763</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="2">
+        <v>44037</v>
+      </c>
+      <c r="B146">
+        <v>271887</v>
+      </c>
+      <c r="D146">
+        <v>5787</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2">
+        <v>44038</v>
+      </c>
+      <c r="B147">
+        <v>273113</v>
+      </c>
+      <c r="D147">
+        <v>5822</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148">
         <v>274289</v>
       </c>
-      <c r="C2">
+      <c r="C148">
         <v>241026</v>
       </c>
-      <c r="D2">
+      <c r="D148">
         <v>5842</v>
       </c>
-      <c r="E2">
+      <c r="E148">
         <v>27421</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B149">
         <v>274289</v>
       </c>
-      <c r="C3">
+      <c r="C149">
         <v>241026</v>
       </c>
-      <c r="D3">
+      <c r="D149">
         <v>5842</v>
       </c>
-      <c r="E3">
+      <c r="E149">
         <v>27421</v>
       </c>
     </row>

--- a/master.xlsx
+++ b/master.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mian Momin\Desktop\COVID-in-pak\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017D3C7E-2A39-4FDF-A732-C5F4CBC2DC8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Azad Jammu and Kashmir" sheetId="1" r:id="rId1"/>
@@ -15,14 +21,13 @@
     <sheet name="Punjab" sheetId="6" r:id="rId6"/>
     <sheet name="Sindh" sheetId="7" r:id="rId7"/>
     <sheet name="Pakistan" sheetId="8" r:id="rId8"/>
-    <sheet name="Sinaloa" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -39,20 +44,23 @@
     <t>Active</t>
   </si>
   <si>
-    <t>Jul 29 2020</t>
-  </si>
-  <si>
     <t>Jul 27 2020</t>
   </si>
   <si>
     <t>Jul 28 2020</t>
   </si>
+  <si>
+    <t>Jul 29 2020</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,17 +112,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -161,7 +178,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -193,9 +210,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,6 +262,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -402,14 +455,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,20 +479,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
+        <v>2034</v>
+      </c>
+      <c r="C2">
+        <v>1449</v>
+      </c>
+      <c r="D2">
+        <v>49</v>
+      </c>
+      <c r="E2">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>2034</v>
+      </c>
+      <c r="C3">
+        <v>1449</v>
+      </c>
+      <c r="D3">
+        <v>49</v>
+      </c>
+      <c r="E3">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>2055</v>
       </c>
-      <c r="C2">
+      <c r="C4">
         <v>1543</v>
       </c>
-      <c r="D2">
+      <c r="D4">
         <v>50</v>
       </c>
-      <c r="E2">
+      <c r="E4">
         <v>462</v>
       </c>
     </row>
@@ -449,14 +536,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,20 +560,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>11654</v>
+        <v>11601</v>
       </c>
       <c r="C2">
-        <v>10080</v>
+        <v>9976</v>
       </c>
       <c r="D2">
         <v>136</v>
       </c>
       <c r="E2">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>11601</v>
+      </c>
+      <c r="C3">
+        <v>9976</v>
+      </c>
+      <c r="D3">
+        <v>136</v>
+      </c>
+      <c r="E3">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>11654</v>
+      </c>
+      <c r="C4">
+        <v>10080</v>
+      </c>
+      <c r="D4">
+        <v>136</v>
+      </c>
+      <c r="E4">
         <v>1438</v>
       </c>
     </row>
@@ -496,14 +617,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,20 +641,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
+        <v>1989</v>
+      </c>
+      <c r="C2">
+        <v>1566</v>
+      </c>
+      <c r="D2">
+        <v>48</v>
+      </c>
+      <c r="E2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1989</v>
+      </c>
+      <c r="C3">
+        <v>1566</v>
+      </c>
+      <c r="D3">
+        <v>48</v>
+      </c>
+      <c r="E3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>2042</v>
       </c>
-      <c r="C2">
+      <c r="C4">
         <v>1658</v>
       </c>
-      <c r="D2">
+      <c r="D4">
         <v>50</v>
       </c>
-      <c r="E2">
+      <c r="E4">
         <v>334</v>
       </c>
     </row>
@@ -543,14 +698,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,20 +722,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
+        <v>14884</v>
+      </c>
+      <c r="C2">
+        <v>12253</v>
+      </c>
+      <c r="D2">
+        <v>164</v>
+      </c>
+      <c r="E2">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>14884</v>
+      </c>
+      <c r="C3">
+        <v>12253</v>
+      </c>
+      <c r="D3">
+        <v>164</v>
+      </c>
+      <c r="E3">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>14963</v>
       </c>
-      <c r="C2">
+      <c r="C4">
         <v>12377</v>
       </c>
-      <c r="D2">
+      <c r="D4">
         <v>165</v>
       </c>
-      <c r="E2">
+      <c r="E4">
         <v>2421</v>
       </c>
     </row>
@@ -590,14 +779,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,20 +803,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
+        <v>33397</v>
+      </c>
+      <c r="C2">
+        <v>27119</v>
+      </c>
+      <c r="D2">
+        <v>1178</v>
+      </c>
+      <c r="E2">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>33397</v>
+      </c>
+      <c r="C3">
+        <v>27119</v>
+      </c>
+      <c r="D3">
+        <v>1178</v>
+      </c>
+      <c r="E3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>33724</v>
       </c>
-      <c r="C2">
+      <c r="C4">
         <v>27724</v>
       </c>
-      <c r="D2">
+      <c r="D4">
         <v>1186</v>
       </c>
-      <c r="E2">
+      <c r="E4">
         <v>4814</v>
       </c>
     </row>
@@ -637,14 +860,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,20 +884,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
+        <v>92073</v>
+      </c>
+      <c r="C2">
+        <v>81260</v>
+      </c>
+      <c r="D2">
+        <v>2116</v>
+      </c>
+      <c r="E2">
+        <v>8697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>92073</v>
+      </c>
+      <c r="C3">
+        <v>81260</v>
+      </c>
+      <c r="D3">
+        <v>2116</v>
+      </c>
+      <c r="E3">
+        <v>8697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>14378</v>
       </c>
-      <c r="C2">
+      <c r="C4">
         <v>9752</v>
       </c>
-      <c r="D2">
+      <c r="D4">
         <v>336</v>
       </c>
-      <c r="E2">
+      <c r="E4">
         <v>4290</v>
       </c>
     </row>
@@ -684,14 +941,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,9 +965,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>118311</v>
@@ -725,9 +982,9 @@
         <v>8757</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>118311</v>
@@ -740,6 +997,23 @@
       </c>
       <c r="E3">
         <v>8757</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>119398</v>
+      </c>
+      <c r="C4">
+        <v>108989</v>
+      </c>
+      <c r="D4">
+        <v>2172</v>
+      </c>
+      <c r="E4">
+        <v>8237</v>
       </c>
     </row>
   </sheetData>
@@ -748,14 +1022,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -772,68 +1049,1661 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>43888</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>43889</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>43890</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>43891</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>43892</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>43894</v>
+      </c>
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>43897</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>43900</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>43901</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>43902</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>43903</v>
+      </c>
+      <c r="B12">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>43904</v>
+      </c>
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>43906</v>
+      </c>
+      <c r="B15">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B16">
+        <v>187</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>43908</v>
+      </c>
+      <c r="B17">
+        <v>187</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>43909</v>
+      </c>
+      <c r="B18">
+        <v>302</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>43910</v>
+      </c>
+      <c r="B19">
+        <v>478</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>43911</v>
+      </c>
+      <c r="B20">
+        <v>495</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>43912</v>
+      </c>
+      <c r="B21">
+        <v>646</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>43913</v>
+      </c>
+      <c r="B22">
+        <v>784</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>43914</v>
+      </c>
+      <c r="B23">
+        <v>887</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>43915</v>
+      </c>
+      <c r="B24">
+        <v>991</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B25">
+        <v>1057</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B26">
+        <v>1197</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B27">
+        <v>1197</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B28">
+        <v>1408</v>
+      </c>
+      <c r="D28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B29">
+        <v>1526</v>
+      </c>
+      <c r="D29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B30">
+        <v>1625</v>
+      </c>
+      <c r="D30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B31">
+        <v>2039</v>
+      </c>
+      <c r="D31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B32">
+        <v>2291</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B33">
+        <v>2291</v>
+      </c>
+      <c r="D33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B34">
+        <v>2291</v>
+      </c>
+      <c r="D34">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B35">
+        <v>2450</v>
+      </c>
+      <c r="D35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B36">
+        <v>3277</v>
+      </c>
+      <c r="D36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B37">
+        <v>3864</v>
+      </c>
+      <c r="D37">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B38">
+        <v>4072</v>
+      </c>
+      <c r="D38">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B39">
+        <v>4322</v>
+      </c>
+      <c r="D39">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B40">
+        <v>4601</v>
+      </c>
+      <c r="D40">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B41">
+        <v>4788</v>
+      </c>
+      <c r="D41">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B42">
+        <v>5038</v>
+      </c>
+      <c r="D42">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B43">
+        <v>5374</v>
+      </c>
+      <c r="D43">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B44">
+        <v>5716</v>
+      </c>
+      <c r="D44">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B45">
+        <v>5988</v>
+      </c>
+      <c r="D45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B46">
+        <v>6505</v>
+      </c>
+      <c r="D46">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B47">
+        <v>7025</v>
+      </c>
+      <c r="D47">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B48">
+        <v>7481</v>
+      </c>
+      <c r="D48">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B49">
+        <v>7993</v>
+      </c>
+      <c r="D49">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B50">
+        <v>8418</v>
+      </c>
+      <c r="D50">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B51">
+        <v>9216</v>
+      </c>
+      <c r="D51">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B52">
+        <v>9749</v>
+      </c>
+      <c r="D52">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B53">
+        <v>9749</v>
+      </c>
+      <c r="D53">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B54">
+        <v>11155</v>
+      </c>
+      <c r="D54">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B55">
+        <v>11940</v>
+      </c>
+      <c r="D55">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B56">
+        <v>12723</v>
+      </c>
+      <c r="D56">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B57">
+        <v>13328</v>
+      </c>
+      <c r="D57">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B58">
+        <v>14079</v>
+      </c>
+      <c r="D58">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B59">
+        <v>14885</v>
+      </c>
+      <c r="D59">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B60">
+        <v>15759</v>
+      </c>
+      <c r="D60">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B61">
+        <v>16817</v>
+      </c>
+      <c r="D61">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B62">
+        <v>18114</v>
+      </c>
+      <c r="D62">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B63">
+        <v>19103</v>
+      </c>
+      <c r="D63">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B64">
+        <v>20186</v>
+      </c>
+      <c r="D64">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B65">
+        <v>21501</v>
+      </c>
+      <c r="D65">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B66">
+        <v>22550</v>
+      </c>
+      <c r="D66">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B67">
+        <v>24073</v>
+      </c>
+      <c r="D67">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B68">
+        <v>25837</v>
+      </c>
+      <c r="D68">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B69">
+        <v>27474</v>
+      </c>
+      <c r="D69">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B70">
+        <v>29465</v>
+      </c>
+      <c r="D70">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B71">
+        <v>30941</v>
+      </c>
+      <c r="D71">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B72">
+        <v>32081</v>
+      </c>
+      <c r="D72">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B73">
+        <v>34336</v>
+      </c>
+      <c r="D73">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B74">
+        <v>35788</v>
+      </c>
+      <c r="D74">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B75">
+        <v>37218</v>
+      </c>
+      <c r="D75">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B76">
+        <v>38799</v>
+      </c>
+      <c r="D76">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B77">
+        <v>40151</v>
+      </c>
+      <c r="D77">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B78">
+        <v>42125</v>
+      </c>
+      <c r="D78">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B79">
+        <v>43966</v>
+      </c>
+      <c r="D79">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>43971</v>
+      </c>
+      <c r="B80">
+        <v>45898</v>
+      </c>
+      <c r="D80">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>43972</v>
+      </c>
+      <c r="B81">
+        <v>48091</v>
+      </c>
+      <c r="D81">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>43973</v>
+      </c>
+      <c r="B82">
+        <v>50694</v>
+      </c>
+      <c r="D82">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>43974</v>
+      </c>
+      <c r="B83">
+        <v>52437</v>
+      </c>
+      <c r="D83">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>43975</v>
+      </c>
+      <c r="B84">
+        <v>54601</v>
+      </c>
+      <c r="D84">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>43976</v>
+      </c>
+      <c r="B85">
+        <v>56349</v>
+      </c>
+      <c r="D85">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>43977</v>
+      </c>
+      <c r="B86">
+        <v>57705</v>
+      </c>
+      <c r="D86">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>43978</v>
+      </c>
+      <c r="B87">
+        <v>59151</v>
+      </c>
+      <c r="D87">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>43979</v>
+      </c>
+      <c r="B88">
+        <v>61227</v>
+      </c>
+      <c r="D88">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>43980</v>
+      </c>
+      <c r="B89">
+        <v>64028</v>
+      </c>
+      <c r="D89">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>43981</v>
+      </c>
+      <c r="B90">
+        <v>66457</v>
+      </c>
+      <c r="D90">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>43982</v>
+      </c>
+      <c r="B91">
+        <v>69496</v>
+      </c>
+      <c r="D91">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>43983</v>
+      </c>
+      <c r="B92">
+        <v>72460</v>
+      </c>
+      <c r="D92">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B93">
+        <v>76398</v>
+      </c>
+      <c r="D93">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>43985</v>
+      </c>
+      <c r="B94">
+        <v>80463</v>
+      </c>
+      <c r="D94">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>43986</v>
+      </c>
+      <c r="B95">
+        <v>85264</v>
+      </c>
+      <c r="D95">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>43987</v>
+      </c>
+      <c r="B96">
+        <v>89249</v>
+      </c>
+      <c r="D96">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>43988</v>
+      </c>
+      <c r="B97">
+        <v>93983</v>
+      </c>
+      <c r="D97">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>43989</v>
+      </c>
+      <c r="B98">
+        <v>98943</v>
+      </c>
+      <c r="D98">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>43990</v>
+      </c>
+      <c r="B99">
+        <v>103671</v>
+      </c>
+      <c r="D99">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B100">
+        <v>108317</v>
+      </c>
+      <c r="D100">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>43992</v>
+      </c>
+      <c r="B101">
+        <v>113702</v>
+      </c>
+      <c r="D101">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>43993</v>
+      </c>
+      <c r="B102">
+        <v>119536</v>
+      </c>
+      <c r="D102">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>43994</v>
+      </c>
+      <c r="B103">
+        <v>125933</v>
+      </c>
+      <c r="D103">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>43995</v>
+      </c>
+      <c r="B104">
+        <v>132405</v>
+      </c>
+      <c r="D104">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>43996</v>
+      </c>
+      <c r="B105">
+        <v>139230</v>
+      </c>
+      <c r="D105">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>43997</v>
+      </c>
+      <c r="B106">
+        <v>144478</v>
+      </c>
+      <c r="D106">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B107">
+        <v>148921</v>
+      </c>
+      <c r="D107">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>43999</v>
+      </c>
+      <c r="B108">
+        <v>154760</v>
+      </c>
+      <c r="D108">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>44000</v>
+      </c>
+      <c r="B109">
+        <v>160118</v>
+      </c>
+      <c r="D109">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>44001</v>
+      </c>
+      <c r="B110">
+        <v>165062</v>
+      </c>
+      <c r="D110">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>44002</v>
+      </c>
+      <c r="B111">
+        <v>171666</v>
+      </c>
+      <c r="D111">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B112">
+        <v>176617</v>
+      </c>
+      <c r="D112">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>44004</v>
+      </c>
+      <c r="B113">
+        <v>181088</v>
+      </c>
+      <c r="D113">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>44005</v>
+      </c>
+      <c r="B114">
+        <v>185034</v>
+      </c>
+      <c r="D114">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>44006</v>
+      </c>
+      <c r="B115">
+        <v>188926</v>
+      </c>
+      <c r="D115">
+        <v>3755</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>44007</v>
+      </c>
+      <c r="B116">
+        <v>192970</v>
+      </c>
+      <c r="D116">
+        <v>3903</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>44008</v>
+      </c>
+      <c r="B117">
+        <v>195745</v>
+      </c>
+      <c r="D117">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>44009</v>
+      </c>
+      <c r="B118">
+        <v>198883</v>
+      </c>
+      <c r="D118">
+        <v>4035</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>44010</v>
+      </c>
+      <c r="B119">
+        <v>202955</v>
+      </c>
+      <c r="D119">
+        <v>4118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>44011</v>
+      </c>
+      <c r="B120">
+        <v>206512</v>
+      </c>
+      <c r="D120">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B121">
+        <v>209337</v>
+      </c>
+      <c r="D121">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>44013</v>
+      </c>
+      <c r="B122">
+        <v>213470</v>
+      </c>
+      <c r="D122">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>44014</v>
+      </c>
+      <c r="B123">
+        <v>217809</v>
+      </c>
+      <c r="D123">
+        <v>4473</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>44015</v>
+      </c>
+      <c r="B124">
+        <v>221896</v>
+      </c>
+      <c r="D124">
+        <v>4551</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>44016</v>
+      </c>
+      <c r="B125">
+        <v>225283</v>
+      </c>
+      <c r="D125">
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>44017</v>
+      </c>
+      <c r="B126">
+        <v>228474</v>
+      </c>
+      <c r="D126">
+        <v>4712</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>44018</v>
+      </c>
+      <c r="B127">
+        <v>231818</v>
+      </c>
+      <c r="D127">
+        <v>4762</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B128">
+        <v>234509</v>
+      </c>
+      <c r="D128">
+        <v>4839</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>44020</v>
+      </c>
+      <c r="B129">
+        <v>237489</v>
+      </c>
+      <c r="D129">
+        <v>4922</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>44021</v>
+      </c>
+      <c r="B130">
+        <v>240848</v>
+      </c>
+      <c r="D130">
+        <v>4983</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>44022</v>
+      </c>
+      <c r="B131">
+        <v>243599</v>
+      </c>
+      <c r="D131">
+        <v>5058</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>44023</v>
+      </c>
+      <c r="B132">
+        <v>246351</v>
+      </c>
+      <c r="D132">
+        <v>5123</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>44024</v>
+      </c>
+      <c r="B133">
+        <v>248872</v>
+      </c>
+      <c r="D133">
+        <v>5197</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>44025</v>
+      </c>
+      <c r="B134">
+        <v>251625</v>
+      </c>
+      <c r="D134">
+        <v>5266</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B135">
+        <v>253604</v>
+      </c>
+      <c r="D135">
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>44027</v>
+      </c>
+      <c r="B136">
+        <v>255769</v>
+      </c>
+      <c r="D136">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>44028</v>
+      </c>
+      <c r="B137">
+        <v>257914</v>
+      </c>
+      <c r="D137">
+        <v>5426</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>44029</v>
+      </c>
+      <c r="B138">
+        <v>259999</v>
+      </c>
+      <c r="D138">
+        <v>5475</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>44030</v>
+      </c>
+      <c r="B139">
+        <v>261917</v>
+      </c>
+      <c r="D139">
+        <v>5522</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>44031</v>
+      </c>
+      <c r="B140">
+        <v>263496</v>
+      </c>
+      <c r="D140">
+        <v>5568</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>44032</v>
+      </c>
+      <c r="B141">
+        <v>265083</v>
+      </c>
+      <c r="D141">
+        <v>5599</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B142">
+        <v>266096</v>
+      </c>
+      <c r="D142">
+        <v>5639</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>44034</v>
+      </c>
+      <c r="B143">
+        <v>267428</v>
+      </c>
+      <c r="D143">
+        <v>5677</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>44035</v>
+      </c>
+      <c r="B144">
+        <v>269191</v>
+      </c>
+      <c r="D144">
+        <v>5709</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>44036</v>
+      </c>
+      <c r="B145">
+        <v>270400</v>
+      </c>
+      <c r="D145">
+        <v>5763</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>44037</v>
+      </c>
+      <c r="B146">
+        <v>271887</v>
+      </c>
+      <c r="D146">
+        <v>5787</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>44038</v>
+      </c>
+      <c r="B147">
+        <v>273113</v>
+      </c>
+      <c r="D147">
+        <v>5822</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148">
+        <v>274289</v>
+      </c>
+      <c r="C148">
+        <v>241026</v>
+      </c>
+      <c r="D148">
+        <v>5842</v>
+      </c>
+      <c r="E148">
+        <v>27421</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149">
+        <v>274289</v>
+      </c>
+      <c r="C149">
+        <v>241026</v>
+      </c>
+      <c r="D149">
+        <v>5842</v>
+      </c>
+      <c r="E149">
+        <v>27421</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150">
         <v>276288</v>
       </c>
-      <c r="C2">
+      <c r="C150">
         <v>244883</v>
       </c>
-      <c r="D2">
+      <c r="D150">
         <v>5892</v>
       </c>
-      <c r="E2">
+      <c r="E150">
         <v>25513</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>12441</v>
-      </c>
-      <c r="C2">
-        <v>9621</v>
-      </c>
-      <c r="D2">
-        <v>2077</v>
-      </c>
-      <c r="E2">
-        <v>743</v>
       </c>
     </row>
   </sheetData>

--- a/master.xlsx
+++ b/master.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mian Momin\Desktop\COVID-in-pak\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017D3C7E-2A39-4FDF-A732-C5F4CBC2DC8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Azad Jammu and Kashmir" sheetId="1" r:id="rId1"/>
@@ -22,12 +16,12 @@
     <sheet name="Sindh" sheetId="7" r:id="rId7"/>
     <sheet name="Pakistan" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -52,15 +46,27 @@
   <si>
     <t>Jul 29 2020</t>
   </si>
+  <si>
+    <t>Jul 30 2020</t>
+  </si>
+  <si>
+    <t>Jul 31 2020</t>
+  </si>
+  <si>
+    <t>Aug  1 2020</t>
+  </si>
+  <si>
+    <t>Aug  5 2020</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,14 +130,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -178,7 +176,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,27 +208,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,24 +242,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -455,14 +417,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -496,7 +458,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -513,7 +475,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -528,6 +490,74 @@
       </c>
       <c r="E4">
         <v>462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>2055</v>
+      </c>
+      <c r="C5">
+        <v>1543</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>2073</v>
+      </c>
+      <c r="C6">
+        <v>1639</v>
+      </c>
+      <c r="D6">
+        <v>54</v>
+      </c>
+      <c r="E6">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>2073</v>
+      </c>
+      <c r="C7">
+        <v>1639</v>
+      </c>
+      <c r="D7">
+        <v>54</v>
+      </c>
+      <c r="E7">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>2105</v>
+      </c>
+      <c r="C8">
+        <v>1804</v>
+      </c>
+      <c r="D8">
+        <v>55</v>
+      </c>
+      <c r="E8">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -536,14 +566,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -560,7 +590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -577,7 +607,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -594,7 +624,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -609,6 +639,74 @@
       </c>
       <c r="E4">
         <v>1438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>11654</v>
+      </c>
+      <c r="C5">
+        <v>10080</v>
+      </c>
+      <c r="D5">
+        <v>136</v>
+      </c>
+      <c r="E5">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>11732</v>
+      </c>
+      <c r="C6">
+        <v>10116</v>
+      </c>
+      <c r="D6">
+        <v>136</v>
+      </c>
+      <c r="E6">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>11732</v>
+      </c>
+      <c r="C7">
+        <v>10116</v>
+      </c>
+      <c r="D7">
+        <v>136</v>
+      </c>
+      <c r="E7">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>11780</v>
+      </c>
+      <c r="C8">
+        <v>10227</v>
+      </c>
+      <c r="D8">
+        <v>136</v>
+      </c>
+      <c r="E8">
+        <v>1417</v>
       </c>
     </row>
   </sheetData>
@@ -617,14 +715,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,7 +739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -658,7 +756,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -675,7 +773,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -690,6 +788,74 @@
       </c>
       <c r="E4">
         <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>2042</v>
+      </c>
+      <c r="C5">
+        <v>1658</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>2105</v>
+      </c>
+      <c r="C6">
+        <v>1719</v>
+      </c>
+      <c r="D6">
+        <v>53</v>
+      </c>
+      <c r="E6">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>2105</v>
+      </c>
+      <c r="C7">
+        <v>1719</v>
+      </c>
+      <c r="D7">
+        <v>53</v>
+      </c>
+      <c r="E7">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>2218</v>
+      </c>
+      <c r="C8">
+        <v>1820</v>
+      </c>
+      <c r="D8">
+        <v>55</v>
+      </c>
+      <c r="E8">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -698,14 +864,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -722,7 +888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -739,7 +905,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -756,7 +922,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -771,6 +937,74 @@
       </c>
       <c r="E4">
         <v>2421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>14963</v>
+      </c>
+      <c r="C5">
+        <v>12377</v>
+      </c>
+      <c r="D5">
+        <v>165</v>
+      </c>
+      <c r="E5">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>15014</v>
+      </c>
+      <c r="C6">
+        <v>12494</v>
+      </c>
+      <c r="D6">
+        <v>165</v>
+      </c>
+      <c r="E6">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>15014</v>
+      </c>
+      <c r="C7">
+        <v>12494</v>
+      </c>
+      <c r="D7">
+        <v>165</v>
+      </c>
+      <c r="E7">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>15122</v>
+      </c>
+      <c r="C8">
+        <v>12732</v>
+      </c>
+      <c r="D8">
+        <v>167</v>
+      </c>
+      <c r="E8">
+        <v>2223</v>
       </c>
     </row>
   </sheetData>
@@ -779,14 +1013,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,7 +1037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -820,7 +1054,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -837,7 +1071,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -852,6 +1086,74 @@
       </c>
       <c r="E4">
         <v>4814</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>33724</v>
+      </c>
+      <c r="C5">
+        <v>27724</v>
+      </c>
+      <c r="D5">
+        <v>1186</v>
+      </c>
+      <c r="E5">
+        <v>4814</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>33958</v>
+      </c>
+      <c r="C6">
+        <v>28450</v>
+      </c>
+      <c r="D6">
+        <v>1194</v>
+      </c>
+      <c r="E6">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>33958</v>
+      </c>
+      <c r="C7">
+        <v>28450</v>
+      </c>
+      <c r="D7">
+        <v>1194</v>
+      </c>
+      <c r="E7">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>34324</v>
+      </c>
+      <c r="C8">
+        <v>29255</v>
+      </c>
+      <c r="D8">
+        <v>1213</v>
+      </c>
+      <c r="E8">
+        <v>3856</v>
       </c>
     </row>
   </sheetData>
@@ -860,14 +1162,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -884,7 +1186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -901,7 +1203,7 @@
         <v>8697</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -918,7 +1220,7 @@
         <v>8697</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -933,6 +1235,74 @@
       </c>
       <c r="E4">
         <v>4290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>14378</v>
+      </c>
+      <c r="C5">
+        <v>9752</v>
+      </c>
+      <c r="D5">
+        <v>336</v>
+      </c>
+      <c r="E5">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>15456</v>
+      </c>
+      <c r="C6">
+        <v>10509</v>
+      </c>
+      <c r="D6">
+        <v>370</v>
+      </c>
+      <c r="E6">
+        <v>4577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>15456</v>
+      </c>
+      <c r="C7">
+        <v>10509</v>
+      </c>
+      <c r="D7">
+        <v>370</v>
+      </c>
+      <c r="E7">
+        <v>4577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>19015</v>
+      </c>
+      <c r="C8">
+        <v>12491</v>
+      </c>
+      <c r="D8">
+        <v>462</v>
+      </c>
+      <c r="E8">
+        <v>6062</v>
       </c>
     </row>
   </sheetData>
@@ -941,14 +1311,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,7 +1335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -982,7 +1352,7 @@
         <v>8757</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -999,7 +1369,7 @@
         <v>8757</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1014,6 +1384,74 @@
       </c>
       <c r="E4">
         <v>8237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>119398</v>
+      </c>
+      <c r="C5">
+        <v>108989</v>
+      </c>
+      <c r="D5">
+        <v>2172</v>
+      </c>
+      <c r="E5">
+        <v>8237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>120550</v>
+      </c>
+      <c r="C6">
+        <v>110233</v>
+      </c>
+      <c r="D6">
+        <v>2209</v>
+      </c>
+      <c r="E6">
+        <v>8108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>120550</v>
+      </c>
+      <c r="C7">
+        <v>110233</v>
+      </c>
+      <c r="D7">
+        <v>2209</v>
+      </c>
+      <c r="E7">
+        <v>8108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>122016</v>
+      </c>
+      <c r="C8">
+        <v>113268</v>
+      </c>
+      <c r="D8">
+        <v>2231</v>
+      </c>
+      <c r="E8">
+        <v>6517</v>
       </c>
     </row>
   </sheetData>
@@ -1022,17 +1460,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E150"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +1484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>43888</v>
       </c>
@@ -1060,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>43889</v>
       </c>
@@ -1071,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>43890</v>
       </c>
@@ -1082,7 +1517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>43891</v>
       </c>
@@ -1093,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>43892</v>
       </c>
@@ -1104,7 +1539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>43894</v>
       </c>
@@ -1115,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>43897</v>
       </c>
@@ -1126,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>43900</v>
       </c>
@@ -1137,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>43901</v>
       </c>
@@ -1148,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>43902</v>
       </c>
@@ -1159,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>43903</v>
       </c>
@@ -1170,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>43904</v>
       </c>
@@ -1181,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>43905</v>
       </c>
@@ -1192,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>43906</v>
       </c>
@@ -1203,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>43907</v>
       </c>
@@ -1214,7 +1649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="2">
         <v>43908</v>
       </c>
@@ -1225,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="2">
         <v>43909</v>
       </c>
@@ -1236,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="2">
         <v>43910</v>
       </c>
@@ -1247,7 +1682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="2">
         <v>43911</v>
       </c>
@@ -1258,7 +1693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" s="2">
         <v>43912</v>
       </c>
@@ -1269,7 +1704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" s="2">
         <v>43913</v>
       </c>
@@ -1280,7 +1715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="2">
         <v>43914</v>
       </c>
@@ -1291,7 +1726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="2">
         <v>43915</v>
       </c>
@@ -1302,7 +1737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" s="2">
         <v>43916</v>
       </c>
@@ -1313,7 +1748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" s="2">
         <v>43917</v>
       </c>
@@ -1324,7 +1759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" s="2">
         <v>43918</v>
       </c>
@@ -1335,7 +1770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" s="2">
         <v>43919</v>
       </c>
@@ -1346,7 +1781,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" s="2">
         <v>43920</v>
       </c>
@@ -1357,7 +1792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>43921</v>
       </c>
@@ -1368,7 +1803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" s="2">
         <v>43922</v>
       </c>
@@ -1379,7 +1814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" s="2">
         <v>43923</v>
       </c>
@@ -1390,7 +1825,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="2">
         <v>43924</v>
       </c>
@@ -1401,7 +1836,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="2">
         <v>43925</v>
       </c>
@@ -1412,7 +1847,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="2">
         <v>43926</v>
       </c>
@@ -1423,7 +1858,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="2">
         <v>43927</v>
       </c>
@@ -1434,7 +1869,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" s="2">
         <v>43928</v>
       </c>
@@ -1445,7 +1880,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" s="2">
         <v>43929</v>
       </c>
@@ -1456,7 +1891,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" s="2">
         <v>43930</v>
       </c>
@@ -1467,7 +1902,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" s="2">
         <v>43931</v>
       </c>
@@ -1478,7 +1913,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" s="2">
         <v>43932</v>
       </c>
@@ -1489,7 +1924,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" s="2">
         <v>43933</v>
       </c>
@@ -1500,7 +1935,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" s="2">
         <v>43934</v>
       </c>
@@ -1511,7 +1946,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" s="2">
         <v>43935</v>
       </c>
@@ -1522,7 +1957,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" s="2">
         <v>43936</v>
       </c>
@@ -1533,7 +1968,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" s="2">
         <v>43937</v>
       </c>
@@ -1544,7 +1979,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" s="2">
         <v>43938</v>
       </c>
@@ -1555,7 +1990,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" s="2">
         <v>43939</v>
       </c>
@@ -1566,7 +2001,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" s="2">
         <v>43940</v>
       </c>
@@ -1577,7 +2012,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" s="2">
         <v>43941</v>
       </c>
@@ -1588,7 +2023,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" s="2">
         <v>43942</v>
       </c>
@@ -1599,7 +2034,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52" s="2">
         <v>43943</v>
       </c>
@@ -1610,7 +2045,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" s="2">
         <v>43944</v>
       </c>
@@ -1621,7 +2056,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" s="2">
         <v>43945</v>
       </c>
@@ -1632,7 +2067,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" s="2">
         <v>43946</v>
       </c>
@@ -1643,7 +2078,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" s="2">
         <v>43947</v>
       </c>
@@ -1654,7 +2089,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" s="2">
         <v>43948</v>
       </c>
@@ -1665,7 +2100,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" s="2">
         <v>43949</v>
       </c>
@@ -1676,7 +2111,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" s="2">
         <v>43950</v>
       </c>
@@ -1687,7 +2122,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" s="2">
         <v>43951</v>
       </c>
@@ -1698,7 +2133,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61" s="2">
         <v>43952</v>
       </c>
@@ -1709,7 +2144,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62" s="2">
         <v>43953</v>
       </c>
@@ -1720,7 +2155,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63" s="2">
         <v>43954</v>
       </c>
@@ -1731,7 +2166,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64" s="2">
         <v>43955</v>
       </c>
@@ -1742,7 +2177,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4">
       <c r="A65" s="2">
         <v>43956</v>
       </c>
@@ -1753,7 +2188,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4">
       <c r="A66" s="2">
         <v>43957</v>
       </c>
@@ -1764,7 +2199,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4">
       <c r="A67" s="2">
         <v>43958</v>
       </c>
@@ -1775,7 +2210,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4">
       <c r="A68" s="2">
         <v>43959</v>
       </c>
@@ -1786,7 +2221,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4">
       <c r="A69" s="2">
         <v>43960</v>
       </c>
@@ -1797,7 +2232,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4">
       <c r="A70" s="2">
         <v>43961</v>
       </c>
@@ -1808,7 +2243,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4">
       <c r="A71" s="2">
         <v>43962</v>
       </c>
@@ -1819,7 +2254,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4">
       <c r="A72" s="2">
         <v>43963</v>
       </c>
@@ -1830,7 +2265,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4">
       <c r="A73" s="2">
         <v>43964</v>
       </c>
@@ -1841,7 +2276,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4">
       <c r="A74" s="2">
         <v>43965</v>
       </c>
@@ -1852,7 +2287,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4">
       <c r="A75" s="2">
         <v>43966</v>
       </c>
@@ -1863,7 +2298,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4">
       <c r="A76" s="2">
         <v>43967</v>
       </c>
@@ -1874,7 +2309,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4">
       <c r="A77" s="2">
         <v>43968</v>
       </c>
@@ -1885,7 +2320,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4">
       <c r="A78" s="2">
         <v>43969</v>
       </c>
@@ -1896,7 +2331,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4">
       <c r="A79" s="2">
         <v>43970</v>
       </c>
@@ -1907,7 +2342,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4">
       <c r="A80" s="2">
         <v>43971</v>
       </c>
@@ -1918,7 +2353,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4">
       <c r="A81" s="2">
         <v>43972</v>
       </c>
@@ -1929,7 +2364,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4">
       <c r="A82" s="2">
         <v>43973</v>
       </c>
@@ -1940,7 +2375,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4">
       <c r="A83" s="2">
         <v>43974</v>
       </c>
@@ -1951,7 +2386,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4">
       <c r="A84" s="2">
         <v>43975</v>
       </c>
@@ -1962,7 +2397,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4">
       <c r="A85" s="2">
         <v>43976</v>
       </c>
@@ -1973,7 +2408,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4">
       <c r="A86" s="2">
         <v>43977</v>
       </c>
@@ -1984,7 +2419,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4">
       <c r="A87" s="2">
         <v>43978</v>
       </c>
@@ -1995,7 +2430,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4">
       <c r="A88" s="2">
         <v>43979</v>
       </c>
@@ -2006,7 +2441,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4">
       <c r="A89" s="2">
         <v>43980</v>
       </c>
@@ -2017,7 +2452,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4">
       <c r="A90" s="2">
         <v>43981</v>
       </c>
@@ -2028,7 +2463,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4">
       <c r="A91" s="2">
         <v>43982</v>
       </c>
@@ -2039,7 +2474,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4">
       <c r="A92" s="2">
         <v>43983</v>
       </c>
@@ -2050,7 +2485,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4">
       <c r="A93" s="2">
         <v>43984</v>
       </c>
@@ -2061,7 +2496,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4">
       <c r="A94" s="2">
         <v>43985</v>
       </c>
@@ -2072,7 +2507,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4">
       <c r="A95" s="2">
         <v>43986</v>
       </c>
@@ -2083,7 +2518,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4">
       <c r="A96" s="2">
         <v>43987</v>
       </c>
@@ -2094,7 +2529,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4">
       <c r="A97" s="2">
         <v>43988</v>
       </c>
@@ -2105,7 +2540,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4">
       <c r="A98" s="2">
         <v>43989</v>
       </c>
@@ -2116,7 +2551,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4">
       <c r="A99" s="2">
         <v>43990</v>
       </c>
@@ -2127,7 +2562,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4">
       <c r="A100" s="2">
         <v>43991</v>
       </c>
@@ -2138,7 +2573,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4">
       <c r="A101" s="2">
         <v>43992</v>
       </c>
@@ -2149,7 +2584,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4">
       <c r="A102" s="2">
         <v>43993</v>
       </c>
@@ -2160,7 +2595,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4">
       <c r="A103" s="2">
         <v>43994</v>
       </c>
@@ -2171,7 +2606,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4">
       <c r="A104" s="2">
         <v>43995</v>
       </c>
@@ -2182,7 +2617,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4">
       <c r="A105" s="2">
         <v>43996</v>
       </c>
@@ -2193,7 +2628,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4">
       <c r="A106" s="2">
         <v>43997</v>
       </c>
@@ -2204,7 +2639,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4">
       <c r="A107" s="2">
         <v>43998</v>
       </c>
@@ -2215,7 +2650,7 @@
         <v>2839</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4">
       <c r="A108" s="2">
         <v>43999</v>
       </c>
@@ -2226,7 +2661,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4">
       <c r="A109" s="2">
         <v>44000</v>
       </c>
@@ -2237,7 +2672,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4">
       <c r="A110" s="2">
         <v>44001</v>
       </c>
@@ -2248,7 +2683,7 @@
         <v>3229</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4">
       <c r="A111" s="2">
         <v>44002</v>
       </c>
@@ -2259,7 +2694,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4">
       <c r="A112" s="2">
         <v>44003</v>
       </c>
@@ -2270,7 +2705,7 @@
         <v>3501</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4">
       <c r="A113" s="2">
         <v>44004</v>
       </c>
@@ -2281,7 +2716,7 @@
         <v>3590</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4">
       <c r="A114" s="2">
         <v>44005</v>
       </c>
@@ -2292,7 +2727,7 @@
         <v>3695</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4">
       <c r="A115" s="2">
         <v>44006</v>
       </c>
@@ -2303,7 +2738,7 @@
         <v>3755</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4">
       <c r="A116" s="2">
         <v>44007</v>
       </c>
@@ -2314,7 +2749,7 @@
         <v>3903</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4">
       <c r="A117" s="2">
         <v>44008</v>
       </c>
@@ -2325,7 +2760,7 @@
         <v>3962</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4">
       <c r="A118" s="2">
         <v>44009</v>
       </c>
@@ -2336,7 +2771,7 @@
         <v>4035</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4">
       <c r="A119" s="2">
         <v>44010</v>
       </c>
@@ -2347,7 +2782,7 @@
         <v>4118</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4">
       <c r="A120" s="2">
         <v>44011</v>
       </c>
@@ -2358,7 +2793,7 @@
         <v>4167</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4">
       <c r="A121" s="2">
         <v>44012</v>
       </c>
@@ -2369,7 +2804,7 @@
         <v>4304</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4">
       <c r="A122" s="2">
         <v>44013</v>
       </c>
@@ -2380,7 +2815,7 @@
         <v>4395</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4">
       <c r="A123" s="2">
         <v>44014</v>
       </c>
@@ -2391,7 +2826,7 @@
         <v>4473</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4">
       <c r="A124" s="2">
         <v>44015</v>
       </c>
@@ -2402,7 +2837,7 @@
         <v>4551</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4">
       <c r="A125" s="2">
         <v>44016</v>
       </c>
@@ -2413,7 +2848,7 @@
         <v>4619</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4">
       <c r="A126" s="2">
         <v>44017</v>
       </c>
@@ -2424,7 +2859,7 @@
         <v>4712</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4">
       <c r="A127" s="2">
         <v>44018</v>
       </c>
@@ -2435,7 +2870,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4">
       <c r="A128" s="2">
         <v>44019</v>
       </c>
@@ -2446,7 +2881,7 @@
         <v>4839</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4">
       <c r="A129" s="2">
         <v>44020</v>
       </c>
@@ -2457,7 +2892,7 @@
         <v>4922</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4">
       <c r="A130" s="2">
         <v>44021</v>
       </c>
@@ -2468,7 +2903,7 @@
         <v>4983</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4">
       <c r="A131" s="2">
         <v>44022</v>
       </c>
@@ -2479,7 +2914,7 @@
         <v>5058</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4">
       <c r="A132" s="2">
         <v>44023</v>
       </c>
@@ -2490,7 +2925,7 @@
         <v>5123</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4">
       <c r="A133" s="2">
         <v>44024</v>
       </c>
@@ -2501,7 +2936,7 @@
         <v>5197</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4">
       <c r="A134" s="2">
         <v>44025</v>
       </c>
@@ -2512,7 +2947,7 @@
         <v>5266</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4">
       <c r="A135" s="2">
         <v>44026</v>
       </c>
@@ -2523,7 +2958,7 @@
         <v>5320</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4">
       <c r="A136" s="2">
         <v>44027</v>
       </c>
@@ -2534,7 +2969,7 @@
         <v>5386</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4">
       <c r="A137" s="2">
         <v>44028</v>
       </c>
@@ -2545,7 +2980,7 @@
         <v>5426</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4">
       <c r="A138" s="2">
         <v>44029</v>
       </c>
@@ -2556,7 +2991,7 @@
         <v>5475</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4">
       <c r="A139" s="2">
         <v>44030</v>
       </c>
@@ -2567,7 +3002,7 @@
         <v>5522</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4">
       <c r="A140" s="2">
         <v>44031</v>
       </c>
@@ -2578,7 +3013,7 @@
         <v>5568</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4">
       <c r="A141" s="2">
         <v>44032</v>
       </c>
@@ -2589,7 +3024,7 @@
         <v>5599</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4">
       <c r="A142" s="2">
         <v>44033</v>
       </c>
@@ -2600,7 +3035,7 @@
         <v>5639</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4">
       <c r="A143" s="2">
         <v>44034</v>
       </c>
@@ -2611,7 +3046,7 @@
         <v>5677</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4">
       <c r="A144" s="2">
         <v>44035</v>
       </c>
@@ -2622,7 +3057,7 @@
         <v>5709</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5">
       <c r="A145" s="2">
         <v>44036</v>
       </c>
@@ -2633,7 +3068,7 @@
         <v>5763</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5">
       <c r="A146" s="2">
         <v>44037</v>
       </c>
@@ -2644,7 +3079,7 @@
         <v>5787</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5">
       <c r="A147" s="2">
         <v>44038</v>
       </c>
@@ -2655,7 +3090,7 @@
         <v>5822</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -2672,7 +3107,7 @@
         <v>27421</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -2689,7 +3124,7 @@
         <v>27421</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -2704,6 +3139,74 @@
       </c>
       <c r="E150">
         <v>25513</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151">
+        <v>276288</v>
+      </c>
+      <c r="C151">
+        <v>244883</v>
+      </c>
+      <c r="D151">
+        <v>5892</v>
+      </c>
+      <c r="E151">
+        <v>25513</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152">
+        <v>278305</v>
+      </c>
+      <c r="C152">
+        <v>247177</v>
+      </c>
+      <c r="D152">
+        <v>5951</v>
+      </c>
+      <c r="E152">
+        <v>25177</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153">
+        <v>278305</v>
+      </c>
+      <c r="C153">
+        <v>247177</v>
+      </c>
+      <c r="D153">
+        <v>5951</v>
+      </c>
+      <c r="E153">
+        <v>25177</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154">
+        <v>281136</v>
+      </c>
+      <c r="C154">
+        <v>254286</v>
+      </c>
+      <c r="D154">
+        <v>6014</v>
+      </c>
+      <c r="E154">
+        <v>20836</v>
       </c>
     </row>
   </sheetData>
